--- a/data/trans_dic/P36BPD13_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,48; 87,83</t>
+          <t>81,4; 87,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,17; 92,85</t>
+          <t>88,23; 92,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,46; 89,55</t>
+          <t>85,48; 89,51</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,89; 86,77</t>
+          <t>79,11; 87,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,42; 90,88</t>
+          <t>85,38; 90,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,9; 87,97</t>
+          <t>83,0; 88,11</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,36; 96,41</t>
+          <t>81,55; 96,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,09; 91,7</t>
+          <t>82,95; 92,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,07; 95,54</t>
+          <t>83,17; 95,34</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,67; 87,04</t>
+          <t>82,1; 87,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,32; 94,57</t>
+          <t>85,36; 94,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,81; 90,69</t>
+          <t>84,55; 91,0</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,23; 86,0</t>
+          <t>78,28; 86,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,5; 92,6</t>
+          <t>87,72; 92,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,92; 89,65</t>
+          <t>85,29; 89,62</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,41; 95,47</t>
+          <t>83,12; 96,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,39; 89,05</t>
+          <t>84,69; 89,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,14</t>
+          <t>85,42; 90,22</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,76; 89,05</t>
+          <t>83,76; 88,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,79; 91,06</t>
+          <t>87,65; 90,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,02; 89,06</t>
+          <t>86,06; 89,34</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>426142</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>402688</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>828830</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>408954; 441606</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>391436; 411554</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>808700; 846776</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>373292</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>334726</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>708018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>354749; 390531</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>323178; 344394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>686397; 728619</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>591076</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144255</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>735330</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>541369; 641064</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>135943; 150989</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>688416; 789181</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>873174</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>869232</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1742407</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>845623; 898789</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>832224; 920945</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1695162; 1824615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>388131</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>753128</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1141259</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>368657; 405021</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>735027; 776724</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1116439; 1173105</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>218531</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>658719</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>877250</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>199911; 231272</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>640922; 676079</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>851857; 899739</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2820</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7442</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2870345</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3162747</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6033092</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2810931; 2981709</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3116725; 3232566</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5948717; 6175010</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36BPD13_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
